--- a/Danh sách thành viên.xlsx
+++ b/Danh sách thành viên.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khang\Desktop\New folder (2)\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOCTAP\HK4\Hệ thống và công nghệ Web\Web-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B6E11C-9C3D-446E-B12B-BB6BB2266320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583DBEEA-B0A7-4227-8F1F-5B178821B5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D68C352-1EB7-4073-B187-1450AF097D79}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -109,10 +107,6 @@
 10. Sign up</t>
   </si>
   <si>
-    <t>7. Blogs
-8. Contact</t>
-  </si>
-  <si>
     <t>3. Services
 4. Service detail</t>
   </si>
@@ -123,6 +117,11 @@
   <si>
     <t>5. Room
 6. Room detail</t>
+  </si>
+  <si>
+    <t>7. Blogs
+8. Contact
+13. Bài viết</t>
   </si>
 </sst>
 </file>
@@ -214,12 +213,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,6 +222,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,9 +247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +287,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,7 +546,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -556,40 +555,40 @@
     <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.44140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>7</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>22666841</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -599,18 +598,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8">
         <v>22677951</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -623,11 +622,11 @@
         <v>21</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8">
         <v>22667141</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -637,14 +636,14 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8">
         <v>22001165</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -657,11 +656,11 @@
         <v>22</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10">
+    <row r="6" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8">
         <v>21045571</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -671,14 +670,14 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8">
         <v>21109731</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -688,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
